--- a/src/attributions/attributions_ig_traj_337.xlsx
+++ b/src/attributions/attributions_ig_traj_337.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05135304793441978</v>
+        <v>0.06429307283106987</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09699708781686479</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02994566097432287</v>
+        <v>-0.01396702360860627</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.05070646416467148</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03294071228038083</v>
+        <v>0.0284832630472772</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03417900153035704</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008427821886138156</v>
+        <v>-0.00897614281680858</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.04283737863510748</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.002080545714036892</v>
+        <v>4.059303266884753e-12</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>-2.619809178088773e-11</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01447298848885451</v>
+        <v>0.002430677062757168</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>-0.002264723009229315</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,79 +2220,79 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.07791031783290396</v>
+        <v>0.009564491815099874</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08589409925552138</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.04989766970089837</v>
+        <v>0.02489510645042237</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.0003192576355812767</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
         <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.03813271869107542</v>
+        <v>0.01064940423699907</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.008311111145331552</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0158254770018627</v>
+        <v>-0.01044222562783347</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.01496971270438358</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1446661137837995</v>
+        <v>0.07529204721853254</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.03065945174197459</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.0182692239204772</v>
+        <v>-0.01623691579784468</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.06466984156674727</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.001143924880676059</v>
+        <v>0.01296809923460745</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.03069569476749008</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.005463833483269542</v>
+        <v>-0.01071705933840184</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.003430395332911713</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04519439652348218</v>
+        <v>0.02482230466933004</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03812960852889546</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.008306149388773285</v>
+        <v>-0.004302850215805456</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01317836834932395</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.00791991382889851</v>
+        <v>0.03875251589265597</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.05165771541947912</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.01479833366052302</v>
+        <v>-0.01511526177341026</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.01157814694489413</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.03905466383016518</v>
+        <v>-0.01730644123314177</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.02773663897260361</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.008815090324976736</v>
+        <v>-0.0008444532180280003</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03289684389728131</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,19 +2415,19 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.01136633603801511</v>
+        <v>0.003036872144909077</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.004210697653145647</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0650981518675358</v>
+        <v>0.008153247475025193</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.005180718479494705</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.03885038854105276</v>
+        <v>-0.0127499503740992</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.02387183142170872</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.006256669612872907</v>
+        <v>-0.003818738890154995</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.03512242978562608</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2463,25 +2463,25 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1314259046705734</v>
+        <v>-0.01156298615119952</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.02901205675345539</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.006216223287022061</v>
+        <v>0.0188306440350229</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.0448282138720263</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02592727368014021</v>
+        <v>-0.01077332771957698</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.00802441765661196</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0674153342026821</v>
+        <v>0.01472972816777159</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.01102203616677807</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.07302244936537179</v>
+        <v>0.000868179699772218</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.06586752033441358</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01116757682308592</v>
+        <v>-0.001958824989677135</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.02841742682572978</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.03247871035182168</v>
+        <v>-0.006070794418332296</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.01767335153898726</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.07222520141167367</v>
+        <v>-0.00315670930352905</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.0152135397246428</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0142276824213986</v>
+        <v>-0.004063714355521829</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.0002965119501443465</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.04772098687392532</v>
+        <v>-0.008277607884733761</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.03344623466272274</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,58 +2598,58 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.03244695199858995</v>
+        <v>-0.01354818353971214</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.01753398938761881</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01206186389750339</v>
+        <v>-0.001060460369628185</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03246483348936476</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.004734117507443051</v>
+        <v>-0.01516665911036789</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.008071308184116589</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.02262090516071889</v>
+        <v>-0.01074221393323599</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.0057492451287632</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
@@ -2658,19 +2658,19 @@
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.009213096169892491</v>
+        <v>0.000431493949479692</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.07516734325770028</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.02043664880798334</v>
+        <v>-0.007034798382076937</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.02980008256390167</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,31 +2679,31 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03305240813220289</v>
+        <v>-0.01825679492905229</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0578680849874756</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.008057773556487648</v>
       </c>
       <c r="GE4" t="n">
         <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2714,43 +2714,43 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1639105452388937</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06970165740384356</v>
+        <v>-0.04787003325408455</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03885503693343146</v>
+        <v>-0.05919200675121145</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04429763549708401</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.07358493970379226</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02058745890949782</v>
+        <v>-0.005442499011813508</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004446922731379041</v>
+        <v>-0.05243867785664008</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,61 +2759,61 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.005835976334153436</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.005588555814666617</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.003050319484072004</v>
+        <v>-0.001307568826308367</v>
       </c>
       <c r="W5" t="n">
-        <v>-4.998148067611714e-11</v>
+        <v>2.0800651332698e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.005865485396136587</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.04082766190257242</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02278152067315044</v>
+        <v>0.01402107418372941</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02551302475662019</v>
+        <v>0.05796955295108158</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01591216040283487</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.01051618807673014</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.03207919953525554</v>
+        <v>-0.02676447212143283</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.05646138248381429</v>
+        <v>-0.05851221543402799</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.0179384630888793</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,43 +2849,43 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3239898991410487</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.08619906824074304</v>
+        <v>0.02801068832400167</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0700013546859191</v>
+        <v>0.1062706334172406</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1230641891645778</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.004775735095956275</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.001580982401596419</v>
+        <v>-0.03550175095233999</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.006217206006658363</v>
+        <v>-0.03030491915897163</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01229368882288199</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1157765085461797</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01233448856277521</v>
+        <v>0.03692086039894865</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.0007267516115690522</v>
+        <v>0.1249795250180095</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.05381283027010533</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1682607850547932</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.08710410964987114</v>
+        <v>0.01485419370654943</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.03976383291589213</v>
+        <v>0.01181702302001457</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.07635449055337858</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -2957,25 +2957,25 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.04604807889380794</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.04819405408991109</v>
+        <v>0.01382340438780822</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.0005183762703169919</v>
+        <v>-0.0003403033130929538</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.02690439928703778</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,52 +2984,52 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.04797601658392313</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.03945313286930119</v>
+        <v>-0.03772570314251643</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0480926982871971</v>
+        <v>-0.1293943229333365</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.02420315429174795</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.0360384542851979</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.04320190150754515</v>
+        <v>0.02763342636219178</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01286484344577129</v>
+        <v>0.01688630941124043</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01574382543904646</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,43 +3038,43 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.002228109257963446</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.002714827672395212</v>
+        <v>0.01609872965103978</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.03184748013151623</v>
+        <v>-0.01981449524947116</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01184954418465269</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.06960458044200507</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.007435008180328539</v>
+        <v>-0.003440579031213568</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02306311141822883</v>
+        <v>-0.001007165934400097</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,34 +3083,34 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.00353020543529332</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.02100507901067758</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01875757692280963</v>
+        <v>-0.04171581193312426</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.009539345816059206</v>
+        <v>-0.03332901492430156</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.05205880160932672</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.03877775721758815</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.03720095323195061</v>
+        <v>0.03934841491841603</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.06494663129493229</v>
+        <v>0.05573458049432097</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.04959227274513509</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,52 +3146,52 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.04212301690418252</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.04720662121394766</v>
+        <v>0.03480684543601659</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04185066177899905</v>
+        <v>-0.01757701770478821</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.03996794198534854</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.03884492852211018</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03517707868589988</v>
+        <v>0.02718978323482251</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.009229362717540596</v>
+        <v>0.01676484058845156</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0264946198239063</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,183 +3200,183 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.05888160656207649</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04828672810404732</v>
+        <v>-0.04113637989789167</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.05829720753586947</v>
+        <v>0.006592493755074526</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.03856744773294732</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.06189769889679061</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.002155883979821871</v>
+        <v>0.04424033389894532</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.03966753033767823</v>
+        <v>0.04809504894942038</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.04173660894990863</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02258957145533626</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.02930266716609506</v>
+        <v>-0.01471347501261546</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01597860779200473</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.03107780881358017</v>
+        <v>0.02159722478757762</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1189188955610439</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02247048279763773</v>
+        <v>-0.009179157880373991</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.005661247499787549</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01919150878910465</v>
+        <v>0.006301539091212736</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05912227793319182</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002360334329530134</v>
+        <v>-0.01065844125691091</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.00469519841731844</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002456024865022246</v>
+        <v>0.0002467519490243309</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.01381045754013916</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01206520791502613</v>
+        <v>-0.0006486229115706288</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.00220321748667707</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03249924786083637</v>
+        <v>0.0141254858674285</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06905312387356349</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01972047647823575</v>
+        <v>0.01693771227155624</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.0002701930637198651</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03272584591365873</v>
+        <v>0.003548661477288489</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.004760382230503397</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.008560019871859382</v>
+        <v>-0.01609488168767206</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.004127565803492772</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1519565483268044</v>
+        <v>0.04041583779387532</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03778344246259688</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.03758119002692813</v>
+        <v>-0.009325599561948792</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.007680456602878511</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3439,25 +3439,25 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.007695549711718501</v>
+        <v>0.004182740523848419</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.0416177273456145</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.008615766596109076</v>
+        <v>-0.00672299006793999</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0.001646281456453661</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.04243581780761012</v>
+        <v>0.02454108188237956</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03437014705048974</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03890629269058754</v>
+        <v>0.01355932034501056</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01042683503452683</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.006347017583059326</v>
+        <v>0.01490065229342337</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.06482703476389381</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.01313584899855072</v>
+        <v>-0.008192042503298474</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01736663990601979</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03545337220842691</v>
+        <v>-0.0003574973787048697</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03862541445202788</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01719163788458362</v>
+        <v>0.0004504690255603935</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.005104835806897838</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,136 +3547,136 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.04473023619277101</v>
+        <v>0.0010041531622763</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02979537664747565</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.08938697683612161</v>
+        <v>-0.0003231949942139965</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01454028693444777</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03731901009620874</v>
+        <v>0.003033047092561521</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03478563199343987</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.007519512665194914</v>
+        <v>0.001562471905302228</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.00489759121985708</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1102434292591707</v>
+        <v>0.001375168397106817</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01475498349269268</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.000234923193706753</v>
+        <v>-0.0001156717608161516</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01500791352857555</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.003331803075096214</v>
+        <v>0.002722164748011138</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.005053755345067371</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.07423314906533858</v>
+        <v>0.01362850124383482</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.001414206756607409</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0224799329650803</v>
+        <v>-0.01290100985135379</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04730890113505356</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.002949193806032801</v>
+        <v>-0.008453315728178985</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.0002644793583403722</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,25 +3685,25 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03339346134571825</v>
+        <v>0.00307624606809338</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.05342549615477869</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.05962490054838556</v>
+        <v>0.001829521801082525</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.00363354340332819</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3715,22 +3715,22 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01188857907482785</v>
+        <v>0.0001071239190760733</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-1.592624233223187e-05</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03537201443053201</v>
+        <v>-0.01136488398234254</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.03151982086563588</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,82 +3739,82 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02802934140106564</v>
+        <v>0.004462169002380318</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02955090065446488</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.02177101183148925</v>
+        <v>0.001705063750737298</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.007523914521820521</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.02895594148010319</v>
+        <v>-0.009506322505821582</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02522513737272248</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.01044336211817976</v>
+        <v>-0.01376227990403237</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.02299860867621803</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.007277726031223166</v>
+        <v>-0.007621392672338096</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.05159697508490409</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.006955733866349584</v>
+        <v>0.0008004711905588321</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.000484966604608691</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02819510191982465</v>
+        <v>-0.01702483983139819</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.0379824610136917</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.004899496553851967</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,46 +3849,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1031801412830552</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.009567066180771395</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.052862180084398</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01480830644755554</v>
+        <v>-0.0169415303009093</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.01507377107400712</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.03960646893092429</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00842609323136945</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02398814180866111</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02996805198551379</v>
+        <v>-0.05216377527772087</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.01179029845624995</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.004931518428212159</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00432915528308992</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.01241762029456501</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.02696538476208309</v>
+        <v>-0.002183330308766976</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -3927,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-8.264624820606789e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.03932881231466817</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.009944596446253706</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0195943199138166</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01824468618474582</v>
+        <v>0.02884918326669116</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3951,82 +3951,82 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.01519395864318696</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02430499248857348</v>
       </c>
       <c r="AM7" t="n">
-        <v>-6.495134133838934e-05</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.04200463082976137</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.006463610152050778</v>
+        <v>-0.02257605803588043</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01377245530718949</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1865013695318965</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.03905464247686493</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.06453028521213104</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02614968976591788</v>
+        <v>0.07130917342078245</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0.0004078744567606258</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.01045296593584606</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.005726116432380001</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0355418412468432</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.004798282564945465</v>
+        <v>-0.03456112894570643</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0.01364664912013745</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.01791154447235991</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05079699557329098</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03422884358138351</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.07510741978722835</v>
+        <v>0.07985008796711453</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.02764628945089632</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.09516154712953992</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.02011337918931499</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.06484005736794464</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.06233284642557958</v>
+        <v>0.01030281724130517</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.01097004661860797</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.02219033599814732</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.009627456286485619</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.0302551503961123</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01820111210598104</v>
+        <v>0.0006302887975269791</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.02740800371112031</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02191390521925252</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.007524574519894339</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.09146705234091632</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.007659862808297089</v>
+        <v>-0.02024696479653388</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.01075862280965435</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.0177691205069412</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01114340693907169</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.02240152903249475</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01447475799698131</v>
+        <v>0.00669667301277503</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.0270905324334753</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.07473088078366658</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.02228599656051045</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.02329630820348709</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.01044441370249824</v>
+        <v>0.02815623067696025</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.007883091174375668</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.0024515701484624</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.0132369269661687</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.01198360052091426</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03890505313068485</v>
+        <v>-0.005883578955597431</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,28 +4221,28 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-5.499776242723439e-05</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.001148386657213948</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02132110550564275</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.03260553170029159</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.007654704241156374</v>
+        <v>-0.01651198217408619</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
@@ -4251,130 +4251,130 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>-0.009233625603536872</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.002987902293173323</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01298653616888164</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.01106960175799215</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.01240260442163964</v>
+        <v>0.03177338330147627</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.02936001172798325</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03740327569084578</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.001248309766284433</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01460379358525851</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01514661451979549</v>
+        <v>-0.002531081942838193</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.01091833980878158</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.02935791363429257</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.007648593820949728</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.01568535214161768</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01921415347760711</v>
+        <v>0.006806085179199716</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01543978374806084</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.02938303722446956</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.003594462000420262</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.00151286484825142</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.00824291769048135</v>
+        <v>-0.02288714874275935</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.01262761137798691</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.0501811896263641</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.002348743231441199</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.01710933400357021</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01953436792366908</v>
+        <v>0.01490191710335407</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
@@ -4386,34 +4386,34 @@
         <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.0002643116241766197</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03655693194673591</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.002194701621267717</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.050717544984538</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03445207037953209</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,28 +4987,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2319029384254359</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1486711815509261</v>
+        <v>-0.1107771709869047</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06893278202796338</v>
+        <v>0.01045162339046189</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.05979107898589172</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1156994697951736</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08656205087088342</v>
+        <v>-0.0969347805171662</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002650365041231977</v>
+        <v>-0.03940470545214244</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0715127085282407</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,97 +5044,97 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.0323178882973082</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.007635774390719044</v>
+        <v>0.007825114509000898</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.04704324578943339</v>
+        <v>0.005917648367243545</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.01051416122709283</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.1301858102883915</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.06430438049806322</v>
+        <v>-0.06117354050955786</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0006069770689910561</v>
+        <v>0.02451385287814362</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.0121473603773206</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>-0.015841074903792</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.06369068254303266</v>
+        <v>-0.0354423252561731</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.07040549181381189</v>
+        <v>-0.08531715456739</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.01623627793990396</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.374191283563395</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.07229311213279511</v>
+        <v>0.03392129531290469</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0839343611227933</v>
+        <v>0.2264814004537224</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,25 +5143,25 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1073144267916803</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0.0009724321381377078</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.06791498094106035</v>
+        <v>-0.04190626428043825</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.007216309330081464</v>
+        <v>-0.08474454504850373</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5170,133 +5170,133 @@
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.002810753999984119</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1566594924467971</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.005647874925024155</v>
+        <v>0.01916363040518941</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.02484095225766633</v>
+        <v>0.147745654978383</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.02889280342541752</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.1954355089824316</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1234642710257951</v>
+        <v>0.02936648249185378</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.02333414540875867</v>
+        <v>0.0677276580256902</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.1150909706793034</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.05511880174412279</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.04416383753889822</v>
+        <v>0.002538104076607804</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01271024116178715</v>
+        <v>-0.01736869774855941</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01604020974488454</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.08251095067026529</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.07654567079166605</v>
+        <v>-0.1242065704104098</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.08633958887135784</v>
+        <v>-0.09559533007684799</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.01691459905938203</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.02868901060355702</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.04287332232305129</v>
+        <v>0.02170397893328013</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01823186298415424</v>
+        <v>-0.006815353181409908</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
@@ -5305,52 +5305,52 @@
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.0126666822776605</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01771918938706324</v>
       </c>
       <c r="DG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01677392820467737</v>
+        <v>0.008374083876259054</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.05897269930798987</v>
+        <v>0.0282165899660476</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.06320406129740547</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.0600284238804587</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.02514517736783456</v>
+        <v>-0.05064262848990792</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.03057234705135864</v>
+        <v>-0.0004602697032325897</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,61 +5359,61 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.02122766563091198</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.03786733559509122</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.0139557192298349</v>
+        <v>-0.03549986617917782</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.025157270610248</v>
+        <v>-0.01242780066420288</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01195551905605914</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>0.001947499195706141</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.1072962003481294</v>
+        <v>0.05587069726941786</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.02182193082805284</v>
+        <v>0.04484614684632397</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.03779162457404329</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,189 +5422,189 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.07196612669216734</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.03731082404020411</v>
+        <v>-0.06055884831520146</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.03894743377510411</v>
+        <v>-0.003370468211697274</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.04536168992097757</v>
+        <v>-0</v>
       </c>
       <c r="EW9" t="n">
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.0431375468376183</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.04603208457741924</v>
+        <v>0.01169547112632406</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0213553636115324</v>
+        <v>0.01081490133163081</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.03138860634718404</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.0687488242460178</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.03679165797476592</v>
+        <v>0.02500520376894284</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.02166161264105609</v>
+        <v>-0.008261540386391614</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0.00856194286547062</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.0682870327594966</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.02090105516174613</v>
+        <v>-0.05920215023833851</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0979214657195655</v>
+        <v>0.1012729737675174</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.02199416763117778</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.03411875816083744</v>
       </c>
       <c r="GA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.0213096704552597</v>
+        <v>-0.07640376375669169</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.0004921119959846792</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.3710338248747325</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2562944721398684</v>
+        <v>-0.1524286601177906</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03723255457828972</v>
+        <v>-0.1221710332137563</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.005128536611998627</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07371965523868405</v>
+        <v>0.004445822156029789</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1993566183833969</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1963749223537034</v>
+        <v>-0.1080256313473331</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04854878275906725</v>
+        <v>-0.1845815996800157</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01042317662564704</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.08177155269063596</v>
+        <v>-0.0007907772715027914</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.09266727722819403</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01567595720499603</v>
+        <v>-0.02434287646005297</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.06394444401735497</v>
+        <v>-0.0008931249223099286</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02472968396344749</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.02146972239131727</v>
+        <v>-8.555880679462096e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.09226941165676168</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.09592752929279236</v>
+        <v>0.07962733883044951</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.0582432994798237</v>
+        <v>-0.03269168688147394</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0328393469335445</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.02556034869915106</v>
+        <v>0.01466329606399533</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.01542555702705662</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.08639105461821746</v>
+        <v>-0.05197987034059726</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.04029009560571065</v>
+        <v>-0.08196481392612195</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0292579140331284</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001891542279245534</v>
+        <v>0.009561916419371713</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,295 +5694,295 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.5728539666415917</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1154035330405973</v>
+        <v>-0.002213277197935295</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.117559121098755</v>
+        <v>0.2020146268286124</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01010210338813014</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.101583015521537</v>
+        <v>0.06469522502050286</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.0005742836117053927</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1178301467110893</v>
+        <v>-0.05081621030623821</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.07251364956178254</v>
+        <v>-0.2254900379010922</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.02110420516004214</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01110551852000765</v>
+        <v>0.001127989101185017</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.1962072648876161</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.01080521910468513</v>
+        <v>0.1335026989040476</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05070628759274956</v>
+        <v>0.1435319281603028</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.02001465590542915</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.06358871609455097</v>
+        <v>0.035469156198079</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.2843507423000579</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1254744305217853</v>
+        <v>0.03130934352958561</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.03095596500881301</v>
+        <v>0.04289298323694028</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01155374979481686</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.08424396641421265</v>
+        <v>0.00716146867762661</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.09010756691181397</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.06632697639572907</v>
+        <v>0.02491346119439617</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.004258645286285397</v>
+        <v>-0.004180266447367667</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.002766437536923795</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02385462917628895</v>
+        <v>0.003244056717246182</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.1074216212221655</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.02944051428380193</v>
+        <v>-0.1387811405884853</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.09795383112898501</v>
+        <v>-0.03789243069636988</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.02812833210838663</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.03386107400730912</v>
+        <v>0.06473816302205149</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.05911811066190235</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.04925822834388998</v>
+        <v>0.05392983693807783</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.003127686218438513</v>
+        <v>0.001916941282543744</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0173103937975509</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01136171113199402</v>
+        <v>0.003770140761499548</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.06619343505949368</v>
       </c>
       <c r="DG10" t="n">
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.05362354502655876</v>
+        <v>0.03864243271689098</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.03389734948977025</v>
+        <v>0.0007765326439271461</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.006388643581503319</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03605727553364143</v>
+        <v>-0.001249753160966839</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.09543144482651272</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0503088065421088</v>
+        <v>-0.03248281959398081</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.08072791125458524</v>
+        <v>0.04093797765999912</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.03069192390523513</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.02790660128624128</v>
+        <v>-0.02854902207693516</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.01859148393595788</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.004081308309582474</v>
+        <v>-0.0349405669881027</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02517154553207884</v>
+        <v>-0.05447151140479368</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.05456535204090637</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.05134713621282481</v>
+        <v>-0.02399020796894651</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.04170176355276701</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1622670211555994</v>
+        <v>0.07249648662165721</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.02097378755206423</v>
+        <v>0.03902154001505594</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.006752598185473586</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.006686721969562817</v>
+        <v>0.0386677947605337</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
@@ -5991,25 +5991,25 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.1026925108799292</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.04406658991461499</v>
+        <v>0.1017130292855855</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.004965024725601613</v>
+        <v>-0.04193503589714117</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.100311582648909</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.01370700372547234</v>
+        <v>0.007514687907345938</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,52 +6018,52 @@
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.0693353311579646</v>
       </c>
       <c r="EZ10" t="n">
         <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.05202352950114333</v>
+        <v>0.04321543697571169</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.003116399646575514</v>
+        <v>0.01877349442751917</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.02148927689891721</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02844804384193154</v>
+        <v>0.002156972398253379</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.06970085703452532</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.06547200884872692</v>
+        <v>-0.04229933503048032</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.06634166521496439</v>
+        <v>-0.02874064022178571</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.0002096810719681887</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.009812016056817119</v>
+        <v>-0.002003899553037028</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.1072047968446801</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.02822093050579313</v>
+        <v>-0.06856727120654331</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.03537610661517061</v>
+        <v>-0.0845509485773636</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.0571958681562918</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.04120365120793653</v>
+        <v>0.008923332559091156</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.1103714945102075</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.05724137290897637</v>
+        <v>-0.03028872967025314</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0197672242061878</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.01505980425771711</v>
+        <v>0.02462169237773131</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6125,28 +6125,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1252340458715698</v>
+        <v>0.1569362592097218</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1615078517009357</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06663447432005877</v>
+        <v>-0.09342170198541691</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.06869195636015804</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,73 +6155,73 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.08569057510957741</v>
+        <v>0.08651367346981288</v>
       </c>
       <c r="L11" t="n">
         <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1121171887612573</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02931196497173262</v>
+        <v>-0.09032155982069168</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.05792321744204713</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.008866983663903703</v>
+        <v>0.02508288174438282</v>
       </c>
       <c r="U11" t="n">
         <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.03278913803853978</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05573685216052696</v>
+        <v>0.005900850199492619</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.02722993912691613</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.05564533916175076</v>
+        <v>0.03811954005337733</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06364627906130933</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.06188814658255295</v>
+        <v>0.02163934130035201</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.02309626613166187</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,79 +6230,79 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.02646391024875793</v>
+        <v>0.02435113160945193</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.005801329236680546</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.01965154229523717</v>
+        <v>-0.02155843525189223</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.01374384919679455</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.06808942179813281</v>
+        <v>0.172927382276178</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.02962429696380482</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.02689580187791755</v>
+        <v>-0.01951744799238811</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.01274858253796787</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.02734286747415263</v>
+        <v>0.03810078072694842</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.08573390859578554</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.005278732443140835</v>
+        <v>-0.06819869623770639</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.0436386807748762</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,106 +6311,106 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.05695433477048067</v>
+        <v>0.08811270720997005</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02889749044231466</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.006167225736689717</v>
+        <v>0.05400506263256664</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.02504682082886212</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.03832499561631126</v>
+        <v>0.07931069097314282</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.06945928397496305</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.03009578831777817</v>
+        <v>-0.01114324072598321</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.02484462187655804</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.04105457572468955</v>
+        <v>-0.03200783298663801</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.03671899434336846</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01195564054199579</v>
+        <v>0.0128733750645854</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0.01578414727174791</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02326463291826681</v>
+        <v>-0.0363846308764584</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.03989877627768246</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1234627016596227</v>
+        <v>-0.02389252520923997</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.02416785270218321</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6419,109 +6419,109 @@
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.04243730208426254</v>
+        <v>-0.01734014163300348</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.02843817579336587</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.008379246862899883</v>
+        <v>0.01352014745087254</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.01733753968688135</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05069036408404903</v>
+        <v>-0.04323560062037009</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02155097984607221</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.0414034654455712</v>
+        <v>0.01232984833937633</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.003461258859911197</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01702114663493464</v>
+        <v>-0.03721735742702222</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.003213792498047225</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.04517111709750871</v>
+        <v>0.01329985542803208</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.0329157712729605</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>-0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01662265702312844</v>
+        <v>0.000578317813228914</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03737306674171542</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02645122992450273</v>
+        <v>-0.0375987599873849</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.02221322630001556</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
@@ -6533,79 +6533,79 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.03365818925631099</v>
+        <v>0.003097467469527432</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.05922375905077693</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02424516083684555</v>
+        <v>0.0134286539818204</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.001557913730536646</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.03123131751287278</v>
+        <v>0.008218030888564336</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.002769213285984792</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.02825192924996481</v>
+        <v>0.002750377933215391</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.02697807089695641</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03844782861707264</v>
+        <v>-0.01538292821171507</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.03126819604911672</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01747669620344699</v>
+        <v>0.01130176743160222</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.02463457365433584</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
@@ -6614,22 +6614,22 @@
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.04827505345035537</v>
+        <v>-0.02093055021400882</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.02452247493900983</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.02989097944974322</v>
+        <v>-0.0389365673472397</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.01852828987863536</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
@@ -6638,52 +6638,52 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.00645023256966767</v>
+        <v>-0.0007203575416400899</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.05483189553174049</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.05831133073907638</v>
+        <v>-0.01617177504096845</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.01233379106609716</v>
       </c>
       <c r="FV11" t="n">
         <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.02781783133959256</v>
+        <v>-0.05082967885549092</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.0360937548255742</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.0215296435443643</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2138036718655256</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3463397459762741</v>
+        <v>-0.1286896262190401</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03030718345242408</v>
+        <v>-0.002057982408033465</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1340671637258272</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,16 +6724,16 @@
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1225468372842711</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2606240814762398</v>
+        <v>-0.1077427978924793</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.05472230153463135</v>
+        <v>-0.03144130433897796</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -6742,106 +6742,106 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1520377997734672</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.0513467430628484</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.02034814433877932</v>
+        <v>0.01988408199003815</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1211615118603055</v>
+        <v>0.05120304080115017</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.0613812172529111</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1119828521842966</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1052681538862823</v>
+        <v>-0.01569980060144378</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.02073717457404472</v>
+        <v>-0.01763455729446732</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.01147742251735413</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.002668509244190885</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.08434003096260109</v>
+        <v>-0.02732235015468345</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.07114097745546202</v>
+        <v>-0.04973641960279803</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.01784457889997873</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.2984389787670303</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1455121793212827</v>
+        <v>0.03294296170660795</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.006265117297948762</v>
+        <v>0.146079264126475</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,214 +6850,214 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.1641485303000625</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0.01987641146363852</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1507992341216196</v>
+        <v>-0.06450652496678494</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.02237547636976635</v>
+        <v>-0.0956634105843541</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.01459086726163735</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.0869028548635173</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0262781826968556</v>
+        <v>0.01615972204122001</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0012903997362272</v>
+        <v>0.1065750069385509</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.07529751498548572</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.156565191961594</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1695248583435293</v>
+        <v>0.0347272051863401</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02145460628219569</v>
+        <v>0.08764612916983482</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.1554241303611113</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.05104566000346365</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.08825786652884585</v>
+        <v>-0.001451441499094302</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.03028215899517777</v>
+        <v>-0.01794605119685659</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.03832350698995046</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.04322564014717657</v>
       </c>
       <c r="CO12" t="n">
         <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.1114747706285788</v>
+        <v>-0.1172093086663116</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1261167184870146</v>
+        <v>-0.07106115182766486</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.07611755463391202</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.02271809144300696</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.08084322129884441</v>
+        <v>0.0122632056623175</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.03668377049375848</v>
+        <v>-0.01321078923932729</v>
       </c>
       <c r="DA12" t="n">
         <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.03529193019768861</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.0444464455426717</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.04393291678681682</v>
+        <v>0.01643427830483637</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.0943056221189728</v>
+        <v>0.04570835480208914</v>
       </c>
       <c r="DJ12" t="n">
         <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.0340215928018418</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.05877688782873926</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.02996604074562184</v>
+        <v>0.01122447826428149</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.004536961477351619</v>
+        <v>-0.03577036118512827</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7066,169 +7066,169 @@
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.002035886591101039</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.03634424683348283</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02499493223693439</v>
+        <v>0.03727422090572064</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.03569217835333548</v>
+        <v>-0.006474602937477593</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
         <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.02713885401978565</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.006211292057785087</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1870390401770663</v>
+        <v>0.04246775047128016</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.05087706427418882</v>
+        <v>0.04020158526480006</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.07613580705671998</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.03358797073576396</v>
       </c>
       <c r="EQ12" t="n">
         <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.0675516880288472</v>
+        <v>0.01801872524090663</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.02947293410059496</v>
+        <v>0.04654649642982299</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.03166376355676252</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.03539540260610522</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.07748997424525886</v>
+        <v>0.005505948377040618</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.03585277535527699</v>
+        <v>0.001310321779417219</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.0540372770987824</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.04146629580049153</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.05221483923689606</v>
+        <v>0.01013644736558332</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.07676881007752197</v>
+        <v>-0.03483748511447808</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.004813306309744005</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.04671656746486463</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.03927481201682463</v>
+        <v>-0.05049342417167667</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.08715797688194331</v>
+        <v>0.07090434998427896</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.04068903780673062</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.0008026344451012347</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.02091279138738696</v>
+        <v>-0.07695442769525436</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.02039138543769469</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7266,184 +7266,184 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1678773439584462</v>
+        <v>0.430849711078083</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3257881415978672</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07620968162357494</v>
+        <v>-0.1125953887861414</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.3580518666320245</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1403460525716247</v>
+        <v>0.2932753883524122</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2353132669936655</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0008015330029574233</v>
+        <v>-0.09557268034411515</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.3195760440783538</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.01257465817194603</v>
+        <v>0.07121113052928069</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.04611263788566951</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.122918152046576</v>
+        <v>0.003679998988713432</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.00186740508096706</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.06154657130497615</v>
+        <v>0.06848331763772682</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0973660157433144</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1221304977538192</v>
+        <v>0.06187622827565622</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.02711373983213619</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02219655933491963</v>
+        <v>0.05736332063742373</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.03489235831177195</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02562145711829445</v>
+        <v>-0.0007993764432883022</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.05650242950569442</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1329492094113844</v>
+        <v>0.3853141527392022</v>
       </c>
       <c r="AV13" t="n">
         <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.08758167379690694</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03375100824614427</v>
+        <v>-0.01293364107327167</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.1628490539884914</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.02614835088303509</v>
+        <v>0.1019805834308209</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1463427119312921</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.003139318889866123</v>
+        <v>-0.1123582518531781</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.1310031826060753</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -7452,22 +7452,22 @@
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.06035048145014476</v>
+        <v>0.1397572689088138</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.03070875016585748</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001865128712426521</v>
+        <v>0.07909213563993564</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.03157458772772736</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,52 +7476,52 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.0300397188815167</v>
+        <v>0.1974885995558234</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.1318546510065526</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.08004311666427362</v>
+        <v>-0.04854590373497503</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.1020312245006874</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.05265282768712515</v>
+        <v>-0.08789813662988362</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.07228139225640129</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.008917609971086919</v>
+        <v>-0.009278629321913022</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.0833704200091137</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,25 +7533,25 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0183916279328767</v>
+        <v>-0.08682575255297417</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.03231741644943514</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1559195084107893</v>
+        <v>-0.0387372151334556</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.004697561838289501</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7563,19 +7563,19 @@
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0424298366370692</v>
+        <v>-0.06234064556811734</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.06605132891168941</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01071979157838893</v>
+        <v>-0.004193390005516712</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.08713655792591443</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7584,25 +7584,25 @@
         <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0610686861724694</v>
+        <v>-0.07673744461063975</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.004689129902018412</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.06498704600161016</v>
+        <v>0.01307561481185642</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.01079765937860536</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,31 +7611,31 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.009098449205391154</v>
+        <v>-0.05510708878457855</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01759983234671197</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.05393926498853491</v>
+        <v>0.02083822932615374</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.003424230112236681</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
@@ -7644,22 +7644,22 @@
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.05864393853068108</v>
+        <v>0.01425882029001314</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.04820447321581761</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01627971858857108</v>
+        <v>0.0002172061994789206</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.01565892277139339</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7671,49 +7671,49 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.03927932362825265</v>
+        <v>-0.02607467512241916</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.1210807136747257</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.05448979318968927</v>
+        <v>0.01858677401302842</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.07743588098738552</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.02593047610941734</v>
+        <v>-0.00814839216461585</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.01423514665144078</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01594539529903376</v>
+        <v>-0.01549018364994561</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.07841993013797342</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7722,22 +7722,22 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.04668802854122827</v>
+        <v>-0.05842819958474935</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.06345446655027316</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.02328385197093749</v>
+        <v>-0.003458306950172684</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.08802578724961771</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7746,79 +7746,79 @@
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
         <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.02240844732471504</v>
+        <v>-0.05116534314782933</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.08889016662573024</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.05712610379769906</v>
+        <v>-0.009560220010617786</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.06173559237342281</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0181957568472497</v>
+        <v>0.01178988409834254</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.00144499171282136</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.05648029384157743</v>
+        <v>-0.05591824607964548</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.00983351546061462</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.03163511470460055</v>
+        <v>-0.04084723151766995</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.05264789515454098</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.04145461507212536</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
@@ -7832,19 +7832,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.4157210176042634</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2852348566705472</v>
+        <v>-0.1130988769271953</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01636538308350756</v>
+        <v>-0.1057554808657881</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -7853,268 +7853,268 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1304842429523344</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.2414726929450312</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2127525316011138</v>
+        <v>-0.08368847291174865</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.04055486041314455</v>
+        <v>-0.08250836963132144</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1274294252141039</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.08997718278185202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.0094683556234597</v>
+        <v>-0.01290317106585711</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.1055544398984503</v>
+        <v>0.04893398094642282</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.05830322242955713</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.06228462848484698</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.08713525527242723</v>
+        <v>0.006855969156761295</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.03865372693672449</v>
+        <v>0.0002772424476278649</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.02968816106950098</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>-0.002003098674274765</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.08259183736447175</v>
+        <v>-0.05341283119981638</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.03656469128185107</v>
+        <v>-0.06056906645482067</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.02301290491888922</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.3449192007995648</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1322878188932026</v>
+        <v>0.05279588681199725</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.006189325263639603</v>
+        <v>0.05935435820238882</v>
       </c>
       <c r="AY14" t="n">
         <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.164204289502274</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.02622525915449221</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1258326827736699</v>
+        <v>-0.07040594002936269</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.02262173924339142</v>
+        <v>-0.1403950435006977</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.02163153585854774</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.0906621654572856</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.006779892861183186</v>
+        <v>0.04184942593336886</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.01439026456775911</v>
+        <v>0.1185537001299674</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0608957634139221</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0.1604292119649297</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1270776659230715</v>
+        <v>0.05916795058510288</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.03158014994690331</v>
+        <v>0.0324390624577246</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.1253344311816554</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.09063581083931237</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.07492677216072206</v>
+        <v>0.006328798117189445</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.02647704412295155</v>
+        <v>-0.01080489537107809</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.03313137819020934</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>-0.008737115160389258</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.0887494042664993</v>
+        <v>-0.08224758892108287</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1487771424504998</v>
+        <v>-0.07718373546034976</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
@@ -8123,133 +8123,133 @@
         <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.05989071259867743</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.07195422441351954</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.0660193898903402</v>
+        <v>0.02197820565162761</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02527620761336984</v>
+        <v>-0.01088173560147142</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.02374818218532258</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.002632410690297865</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001448454298248494</v>
+        <v>0.01800537975880481</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.05902009544239219</v>
+        <v>0.04032296825232287</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.03603040082078253</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.04567194507043751</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.001264175929429562</v>
+        <v>0.06057254055034241</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.03063725000208688</v>
+        <v>-0.04832170853164212</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.04268696099896605</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.02803243819833417</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0203447595443562</v>
+        <v>-0.002360018974442748</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.00207139418609496</v>
+        <v>-0.08195473438457566</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.0294457263150709</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.08940104990286528</v>
       </c>
       <c r="EH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.1477082527496664</v>
+        <v>0.02634265590553355</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.04010326586622642</v>
+        <v>0.06460343493227505</v>
       </c>
       <c r="EK14" t="n">
         <v>0</v>
@@ -8258,7 +8258,7 @@
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.05860939463048344</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
@@ -8267,25 +8267,25 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.03702591341140891</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.02042660768434828</v>
+        <v>0.02548358369606507</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.01482682650624128</v>
+        <v>0.005287369178860078</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.0009156283771017297</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
@@ -8294,16 +8294,16 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.07153567408493937</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.06995537250682898</v>
+        <v>0.01270604370247221</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.03336835827461324</v>
+        <v>0.008749485326731444</v>
       </c>
       <c r="FC14" t="n">
         <v>-0</v>
@@ -8312,34 +8312,34 @@
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.04160327002497879</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>0.001890884390385129</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.04098349425302673</v>
+        <v>0.05141749248313847</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.09790226760343662</v>
+        <v>-0.07210178696452106</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.01129823926273193</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,25 +8348,25 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.005090512335192129</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.01019651732949268</v>
+        <v>0.009223029162050552</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.0182544099055284</v>
+        <v>-0.006652912864971066</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.01911644841247223</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
@@ -8375,25 +8375,25 @@
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.001669471045212574</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.01053227297113113</v>
+        <v>-0.06147142513062498</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.02144168625107855</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8401,157 +8401,157 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.5256608714867217</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1456108494253749</v>
+        <v>0.2372601573803971</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.09006464321338234</v>
+        <v>0.1264791430087394</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2638278646413661</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.3803576293280561</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07498113141236538</v>
+        <v>0.2763327806832541</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.07843287692837693</v>
+        <v>0.08088713317604285</v>
       </c>
       <c r="O15" t="n">
         <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2153163762639955</v>
+        <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.1158435947994318</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.07547130418889721</v>
+        <v>0.03680415494114984</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1164855981741384</v>
+        <v>-0.03446470561912136</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.06988161799100409</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.1876990535294692</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.02947265273950158</v>
+        <v>0.01170688824847394</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.0252352094170454</v>
+        <v>0.007586976533853781</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.0853496588417671</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>-0.04928140101838897</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.04187595270536486</v>
+        <v>0.03818859760764937</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01508861592356142</v>
+        <v>0.02031856285163157</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02352190077573506</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.3256480142850736</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.1159901362726208</v>
+        <v>-0.05474512345080687</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.03615115498802536</v>
+        <v>-0.02059746135874782</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8560,76 +8560,76 @@
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1510603599089842</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>-0.07945504439882344</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.01901173795523933</v>
+        <v>0.1328397053119369</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.03364791299149431</v>
+        <v>0.333688786875114</v>
       </c>
       <c r="BH15" t="n">
         <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.01432379607153195</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>-0.01659478363990655</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.01005777605179255</v>
+        <v>-0.0562459185160734</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.02219603367094258</v>
+        <v>0.03538356896376418</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0.06730018086656166</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.2087422137719682</v>
       </c>
       <c r="BW15" t="n">
         <v>-0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.1166486365033935</v>
+        <v>0.07674390091418885</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.00115499085642755</v>
+        <v>-0.05659921742681904</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
@@ -8638,106 +8638,106 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1865410135182025</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.1165939957277442</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.04340957018532095</v>
+        <v>-0.03583001618079656</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.008163001787029819</v>
+        <v>0.05939541001859362</v>
       </c>
       <c r="CI15" t="n">
         <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0.03051558880450295</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.01952781767632982</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.05035597997586463</v>
+        <v>0.001572994314786233</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.1077625829108722</v>
+        <v>0.03210437482526948</v>
       </c>
       <c r="CR15" t="n">
         <v>-0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.05087875131258561</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>0.115058760694598</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0480951257826708</v>
+        <v>-0.04635080060702636</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.003910175746787304</v>
+        <v>0.03745151959759679</v>
       </c>
       <c r="DA15" t="n">
         <v>-0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0.04252034866829825</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.1040313050979296</v>
       </c>
       <c r="DG15" t="n">
         <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.02697783418087279</v>
+        <v>-0.03055475562145342</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.001822579661196642</v>
+        <v>-0.0001664196873230549</v>
       </c>
       <c r="DJ15" t="n">
         <v>-0</v>
@@ -8749,79 +8749,79 @@
         <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.003365644893572124</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.102869935105254</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.02029386341898469</v>
+        <v>-0.06807450256638709</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.01562704821421314</v>
+        <v>0.1388539752554495</v>
       </c>
       <c r="DS15" t="n">
         <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.08196435075828878</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.0480228718327592</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.02636673287485324</v>
+        <v>0.12404410306456</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.03114704109577731</v>
+        <v>-0.08580580587989037</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.04753817481523474</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.06644936454427376</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.07216032550356281</v>
+        <v>-0.02959208326944606</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.06765023574283636</v>
+        <v>-0.05857540766975586</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>-0</v>
@@ -8830,142 +8830,142 @@
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0.0555538262401333</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.08505892253252721</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.04160467702390423</v>
+        <v>0.07263912253869399</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.03933585743435589</v>
+        <v>-0.07654455944747302</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0.06728769099299334</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>0.1365094691416994</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.03471721188621966</v>
+        <v>-0.06368706610830124</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.006200392728670168</v>
+        <v>0.03120721329800244</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0.05472007952764511</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.04120657910296781</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.01571183541081556</v>
+        <v>-0.05801382895367035</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.04150620175394584</v>
+        <v>0.02541160581604044</v>
       </c>
       <c r="FL15" t="n">
         <v>0</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN15" t="n">
         <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.02881276868136844</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0.01373754752597957</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.004040723436414691</v>
+        <v>0.1175451917420798</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.00233006146762598</v>
+        <v>-0.03024280881182445</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.003744883113161731</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.07400739902756229</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.02836341907026009</v>
+        <v>0.119139845877772</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
       </c>
       <c r="GF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.0160799727855286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8976,184 +8976,184 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.345198972699999</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.1149010954060778</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1854994881871635</v>
+        <v>-0.05145191441207728</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2600773464868356</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3846032402225347</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0.2903394076540288</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>-0.09754515767015579</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3072843342374372</v>
+        <v>-0.1250989370770266</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.171489019417423</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4397235626806961</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-0</v>
+        <v>0.0957173463036691</v>
       </c>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>-0.0391264290245921</v>
       </c>
       <c r="W16" t="n">
-        <v>0.12855494751144</v>
+        <v>0.02383538232412771</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.05348216286863711</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1534087562096747</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
         <v>-0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0</v>
+        <v>0.0488924213904005</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.03350293848373585</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.08057425863689485</v>
+        <v>0.05859225640272011</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.02005286180568526</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.05896957793985332</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0</v>
+        <v>-0.0213908436052626</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>-0.03515697874399307</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.1357708075849564</v>
+        <v>-0.07720740554791077</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.004158385381142148</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.0107662636963713</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>-0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0</v>
+        <v>0.1511335665700965</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0</v>
+        <v>-0.03737031061207872</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.08784686152991328</v>
+        <v>0.1622124129109514</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.1741601581572112</v>
+        <v>-0</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.1606580567035523</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
         <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>0.07763924246271658</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0.02503407220329837</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.1359983711973499</v>
+        <v>-0.0866652026136296</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.04773354561987702</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
         <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.1497872373214962</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
@@ -9165,22 +9165,22 @@
         <v>-0</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0</v>
+        <v>0.05200513554166711</v>
       </c>
       <c r="BO16" t="n">
-        <v>-0</v>
+        <v>0.05404558318025639</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.003033066777617613</v>
+        <v>0.1345479166322357</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.05183364310662385</v>
+        <v>-0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.03390163152843697</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
@@ -9189,52 +9189,52 @@
         <v>-0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>0.05803994295864351</v>
       </c>
       <c r="BX16" t="n">
-        <v>-0</v>
+        <v>-0.05141999250373239</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.03956638701084273</v>
+        <v>0.109955437929343</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0.1855023866066938</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1367229016051288</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0</v>
+        <v>-0.06736061492964805</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>0.03317236837575027</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.06793937107364974</v>
+        <v>-0.002252753124409441</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.05109111573671591</v>
+        <v>0</v>
       </c>
       <c r="CJ16" t="n">
         <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>-0.06777638139231697</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>-0</v>
@@ -9243,241 +9243,241 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0</v>
+        <v>0.02459010693545122</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.008768544958123074</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.06787232670798414</v>
+        <v>-0.1103037781817533</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0.06763265445417549</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0.03279692595939678</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>-0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
       </c>
       <c r="CX16" t="n">
-        <v>0</v>
+        <v>-0.04929794135728201</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>0.0332406161621606</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.05842765615992966</v>
+        <v>0.0224914196120334</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.05886832965489441</v>
+        <v>-0</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0.09330737275169643</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
         <v>-0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0</v>
+        <v>-0.03470942551622853</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>0.0431176308505376</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.02569011472648923</v>
+        <v>-0.004948437272397194</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.02163292507004004</v>
+        <v>0</v>
       </c>
       <c r="DK16" t="n">
         <v>-0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.006453920259611681</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>-0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
         <v>-0</v>
       </c>
       <c r="DP16" t="n">
-        <v>-0</v>
+        <v>0.009870477526400049</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0</v>
+        <v>0.03490516087646607</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.07789911440568141</v>
+        <v>-0.153689748957685</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0.001632952171630441</v>
+        <v>-0</v>
       </c>
       <c r="DT16" t="n">
         <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0.01208780996207602</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
         <v>0</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0</v>
+        <v>0.06141528719383687</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>-0.01450880171458373</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.005532362782985036</v>
+        <v>-0.07155596274381316</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.01707828143252444</v>
+        <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.02737388422349162</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
       </c>
       <c r="EH16" t="n">
-        <v>0</v>
+        <v>-0.1118637068464601</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>0.05134876090173277</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.0160705731475779</v>
+        <v>0.06382787617717829</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.08026189074573123</v>
+        <v>-0</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>-0.01593511840779837</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>-0.01184996076442923</v>
       </c>
       <c r="ER16" t="n">
-        <v>-0</v>
+        <v>0.02475890972432485</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.07812476771190704</v>
+        <v>0.02373722596379775</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.03243301074889424</v>
+        <v>-0</v>
       </c>
       <c r="EU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
-        <v>-0.0962307585367745</v>
+        <v>-0</v>
       </c>
       <c r="EW16" t="n">
         <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0</v>
+        <v>-0.06185639127134192</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>0.04668949649203157</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.06550520600521036</v>
+        <v>0.02180987576796098</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.06229018077275786</v>
+        <v>0</v>
       </c>
       <c r="FD16" t="n">
         <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>-0.09427328055536408</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
         <v>-0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
         <v>-0</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0.006755249434751366</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>0.001999001047889296</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.003891620394942592</v>
+        <v>0.06858414679854917</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.02801690936702423</v>
+        <v>-0</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.05214938245696334</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
         <v>0</v>
@@ -9486,55 +9486,55 @@
         <v>-0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0</v>
+        <v>-0.003782882669082777</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>-0.006776623877901009</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.03312511921080664</v>
+        <v>0.0513294444931864</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.0113921049042647</v>
+        <v>-0</v>
       </c>
       <c r="FV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>-0.01215084549080929</v>
+        <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>0.04385569555685608</v>
       </c>
       <c r="GB16" t="n">
-        <v>0</v>
+        <v>-0.04488804793894059</v>
       </c>
       <c r="GC16" t="n">
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0.07018051116669777</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.02793010527584613</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
